--- a/A1.4.xlsx
+++ b/A1.4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STATISTICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiaun\Documents\School\Business Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="7995" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19548" windowHeight="7416" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Takeaway" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="#A1.4" sheetId="12" r:id="rId4"/>
     <sheet name="A1.4" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterate="1"/>
 </workbook>
 </file>
 
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -16009,7 +16009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
@@ -16019,7 +16019,7 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16028,7 +16028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -16038,17 +16038,17 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="97.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="32.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="97.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>100</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>102</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>103</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>104</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>105</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>106</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>107</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>108</v>
       </c>
@@ -16191,7 +16191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>109</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>110</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -16227,7 +16227,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>111</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>112</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>114</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>115</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>116</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>117</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -16364,7 +16364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>118</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>119</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>68</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>80</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>81</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>82</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>83</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>88</v>
       </c>
@@ -16507,7 +16507,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16517,7 +16517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
@@ -16527,9 +16527,9 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16538,19 +16538,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>93</v>
       </c>
@@ -16562,7 +16560,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -16579,66 +16577,38 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2">
-        <f>F2/$E$2</f>
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">A3+B3</f>
-        <v>8</v>
-      </c>
       <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" si="1">F3/$E$2</f>
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="F5">
         <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16647,25 +16617,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A6:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>121</v>
       </c>
@@ -16675,7 +16643,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
